--- a/Data/SalesTrend/SalesTrend_CMT.xlsx
+++ b/Data/SalesTrend/SalesTrend_CMT.xlsx
@@ -567,31 +567,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>83.53</v>
+        <v>84.66</v>
       </c>
       <c r="C2">
-        <v>97.52</v>
+        <v>97.27</v>
       </c>
       <c r="D2">
-        <v>79.83</v>
+        <v>80.73</v>
       </c>
       <c r="E2">
-        <v>35.21</v>
+        <v>34.45</v>
       </c>
       <c r="F2">
-        <v>66.97</v>
+        <v>69.94</v>
       </c>
       <c r="G2">
-        <v>85.75</v>
+        <v>84.38</v>
       </c>
       <c r="H2">
-        <v>83.41</v>
+        <v>84.84</v>
       </c>
       <c r="I2">
-        <v>37.93</v>
+        <v>37.7</v>
       </c>
       <c r="J2">
-        <v>91.73</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -599,31 +599,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>62.44</v>
+        <v>65.83</v>
       </c>
       <c r="C3">
-        <v>66.15000000000001</v>
+        <v>65.63</v>
       </c>
       <c r="D3">
-        <v>69.25</v>
+        <v>72.06</v>
       </c>
       <c r="E3">
-        <v>18.78</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>24.97</v>
+        <v>29.06</v>
       </c>
       <c r="G3">
-        <v>68.95</v>
+        <v>66.08</v>
       </c>
       <c r="H3">
-        <v>90.93000000000001</v>
+        <v>93.91</v>
       </c>
       <c r="I3">
-        <v>34.26</v>
+        <v>34.79</v>
       </c>
       <c r="J3">
-        <v>112.07</v>
+        <v>117.63</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -631,31 +631,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>75.01000000000001</v>
+        <v>80.27</v>
       </c>
       <c r="C4">
-        <v>104.99</v>
+        <v>100.62</v>
       </c>
       <c r="D4">
-        <v>72.39</v>
+        <v>69.37</v>
       </c>
       <c r="E4">
-        <v>39.75</v>
+        <v>38.09</v>
       </c>
       <c r="F4">
-        <v>19.88</v>
+        <v>19.05</v>
       </c>
       <c r="G4">
-        <v>83.48</v>
+        <v>80</v>
       </c>
       <c r="H4">
-        <v>138.56</v>
+        <v>134.16</v>
       </c>
       <c r="I4">
-        <v>32.2</v>
+        <v>35.83</v>
       </c>
       <c r="J4">
-        <v>175.14</v>
+        <v>180.39</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -663,31 +663,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>112</v>
+        <v>107.33</v>
       </c>
       <c r="C5">
-        <v>73.03</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="D5">
-        <v>128.25</v>
+        <v>126.09</v>
       </c>
       <c r="E5">
-        <v>5.09</v>
+        <v>4.88</v>
       </c>
       <c r="F5">
-        <v>27.83</v>
+        <v>26.67</v>
       </c>
       <c r="G5">
-        <v>85.62</v>
+        <v>82.05</v>
       </c>
       <c r="H5">
-        <v>132.31</v>
+        <v>128.98</v>
       </c>
       <c r="I5">
-        <v>63.81</v>
+        <v>61.15</v>
       </c>
       <c r="J5">
-        <v>174.91</v>
+        <v>179.05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -695,31 +695,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>36.91</v>
+        <v>41.37</v>
       </c>
       <c r="C6">
-        <v>45.09</v>
+        <v>43.21</v>
       </c>
       <c r="D6">
-        <v>48.03</v>
+        <v>63.04</v>
       </c>
       <c r="E6">
-        <v>20.38</v>
+        <v>19.53</v>
       </c>
       <c r="F6">
-        <v>57.97</v>
+        <v>55.56</v>
       </c>
       <c r="G6">
-        <v>76.3</v>
+        <v>73.12</v>
       </c>
       <c r="H6">
-        <v>112.41</v>
+        <v>131.88</v>
       </c>
       <c r="I6">
-        <v>29.2</v>
+        <v>27.98</v>
       </c>
       <c r="J6">
-        <v>79.5</v>
+        <v>99.05</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -727,31 +727,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>16.83</v>
+        <v>16.13</v>
       </c>
       <c r="C7">
-        <v>15.07</v>
+        <v>15.45</v>
       </c>
       <c r="D7">
-        <v>21.41</v>
+        <v>20.52</v>
       </c>
       <c r="E7">
-        <v>8.43</v>
+        <v>8.08</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="G7">
-        <v>15.81</v>
+        <v>15.15</v>
       </c>
       <c r="H7">
-        <v>25.07</v>
+        <v>24.02</v>
       </c>
       <c r="I7">
-        <v>15.14</v>
+        <v>14.51</v>
       </c>
       <c r="J7">
-        <v>53.75</v>
+        <v>51.52</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -759,31 +759,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>65.3</v>
+        <v>77.36</v>
       </c>
       <c r="C8">
-        <v>69.16</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="D8">
-        <v>71.37</v>
+        <v>80.47</v>
       </c>
       <c r="E8">
-        <v>13.07</v>
+        <v>12.52</v>
       </c>
       <c r="F8">
-        <v>50.59</v>
+        <v>72.73</v>
       </c>
       <c r="G8">
-        <v>82.54000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="H8">
-        <v>92.22</v>
+        <v>101.95</v>
       </c>
       <c r="I8">
-        <v>49.32</v>
+        <v>49.36</v>
       </c>
       <c r="J8">
-        <v>103.61</v>
+        <v>109.22</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -791,31 +791,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>61.93</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="C9">
-        <v>108.3</v>
+        <v>108.11</v>
       </c>
       <c r="D9">
-        <v>78.31999999999999</v>
+        <v>75.05</v>
       </c>
       <c r="E9">
-        <v>30.54</v>
+        <v>29.27</v>
       </c>
       <c r="F9">
-        <v>7.32</v>
+        <v>7.02</v>
       </c>
       <c r="G9">
-        <v>63.24</v>
+        <v>60.61</v>
       </c>
       <c r="H9">
-        <v>66.53</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="I9">
-        <v>23.16</v>
+        <v>25.65</v>
       </c>
       <c r="J9">
-        <v>69.56999999999999</v>
+        <v>74.06999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -823,31 +823,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>101.26</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="C10">
-        <v>89.58</v>
+        <v>90.06</v>
       </c>
       <c r="D10">
-        <v>78.42</v>
+        <v>77.43000000000001</v>
       </c>
       <c r="E10">
-        <v>36.89</v>
+        <v>35.36</v>
       </c>
       <c r="F10">
-        <v>44.83</v>
+        <v>44.44</v>
       </c>
       <c r="G10">
-        <v>85.3</v>
+        <v>81.75</v>
       </c>
       <c r="H10">
-        <v>82.7</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="I10">
-        <v>34.89</v>
+        <v>34.64</v>
       </c>
       <c r="J10">
-        <v>98.66</v>
+        <v>98.68000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -855,31 +855,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>66.89</v>
+        <v>69.12</v>
       </c>
       <c r="C11">
-        <v>33.69</v>
+        <v>50.22</v>
       </c>
       <c r="D11">
-        <v>54.44</v>
+        <v>61.79</v>
       </c>
       <c r="E11">
-        <v>30.54</v>
+        <v>29.27</v>
       </c>
       <c r="F11">
-        <v>27.83</v>
+        <v>26.67</v>
       </c>
       <c r="G11">
-        <v>141.24</v>
+        <v>135.35</v>
       </c>
       <c r="H11">
-        <v>42.02</v>
+        <v>50.7</v>
       </c>
       <c r="I11">
-        <v>9.800000000000001</v>
+        <v>10.78</v>
       </c>
       <c r="J11">
-        <v>27.54</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -887,31 +887,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>98.59</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C12">
-        <v>79.78</v>
+        <v>83.92</v>
       </c>
       <c r="D12">
-        <v>68.94</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="E12">
-        <v>16.09</v>
+        <v>15.42</v>
       </c>
       <c r="F12">
-        <v>19.88</v>
+        <v>19.05</v>
       </c>
       <c r="G12">
-        <v>80.55</v>
+        <v>77.19</v>
       </c>
       <c r="H12">
-        <v>92.5</v>
+        <v>97.06999999999999</v>
       </c>
       <c r="I12">
-        <v>42.6</v>
+        <v>41.75</v>
       </c>
       <c r="J12">
-        <v>115.94</v>
+        <v>118.52</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -919,31 +919,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>113.08</v>
+        <v>110.89</v>
       </c>
       <c r="C13">
-        <v>90.95999999999999</v>
+        <v>90.61</v>
       </c>
       <c r="D13">
-        <v>67.56</v>
+        <v>66.67</v>
       </c>
       <c r="E13">
-        <v>85.68000000000001</v>
+        <v>82.11</v>
       </c>
       <c r="F13">
-        <v>83.48</v>
+        <v>80</v>
       </c>
       <c r="G13">
-        <v>45.26</v>
+        <v>43.37</v>
       </c>
       <c r="H13">
-        <v>81.81</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="I13">
-        <v>34.08</v>
+        <v>33.79</v>
       </c>
       <c r="J13">
-        <v>105.17</v>
+        <v>102.89</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -951,31 +951,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>109.75</v>
+        <v>109.56</v>
       </c>
       <c r="C14">
-        <v>104.43</v>
+        <v>100.08</v>
       </c>
       <c r="D14">
-        <v>104.84</v>
+        <v>102.71</v>
       </c>
       <c r="E14">
-        <v>33.3</v>
+        <v>31.91</v>
       </c>
       <c r="F14">
-        <v>49.37</v>
+        <v>51.61</v>
       </c>
       <c r="G14">
-        <v>75.67</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="H14">
-        <v>85.75</v>
+        <v>85.94</v>
       </c>
       <c r="I14">
-        <v>46.68</v>
+        <v>44.73</v>
       </c>
       <c r="J14">
-        <v>128.18</v>
+        <v>128.08</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -983,31 +983,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>79.33</v>
+        <v>76.02</v>
       </c>
       <c r="C15">
-        <v>103.54</v>
+        <v>99.22</v>
       </c>
       <c r="D15">
-        <v>90.65000000000001</v>
+        <v>86.87</v>
       </c>
       <c r="E15">
-        <v>24.6</v>
+        <v>23.58</v>
       </c>
       <c r="F15">
-        <v>69.56999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="G15">
-        <v>102.84</v>
+        <v>98.55</v>
       </c>
       <c r="H15">
-        <v>89.2</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="I15">
-        <v>49.82</v>
+        <v>47.74</v>
       </c>
       <c r="J15">
-        <v>108.39</v>
+        <v>103.88</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1015,31 +1015,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>113.38</v>
+        <v>108.66</v>
       </c>
       <c r="C16">
-        <v>115.57</v>
+        <v>110.76</v>
       </c>
       <c r="D16">
-        <v>76.23</v>
+        <v>73.05</v>
       </c>
       <c r="E16">
-        <v>33.09</v>
+        <v>31.71</v>
       </c>
       <c r="F16">
-        <v>27.83</v>
+        <v>26.67</v>
       </c>
       <c r="G16">
-        <v>75.61</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="H16">
-        <v>102.33</v>
+        <v>100.69</v>
       </c>
       <c r="I16">
-        <v>54.12</v>
+        <v>55.99</v>
       </c>
       <c r="J16">
-        <v>103.97</v>
+        <v>104.03</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1047,31 +1047,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>71.29000000000001</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="C17">
-        <v>69.17</v>
+        <v>66.64</v>
       </c>
       <c r="D17">
-        <v>80.58</v>
+        <v>79.63</v>
       </c>
       <c r="E17">
-        <v>20.1</v>
+        <v>19.26</v>
       </c>
       <c r="F17">
-        <v>51.06</v>
+        <v>51.38</v>
       </c>
       <c r="G17">
-        <v>84.52</v>
+        <v>81.83</v>
       </c>
       <c r="H17">
-        <v>82.91</v>
+        <v>81.23999999999999</v>
       </c>
       <c r="I17">
-        <v>36.62</v>
+        <v>35.52</v>
       </c>
       <c r="J17">
-        <v>73.73999999999999</v>
+        <v>74.06999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1079,31 +1079,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>65.88</v>
+        <v>66.69</v>
       </c>
       <c r="C18">
-        <v>74.70999999999999</v>
+        <v>72.98</v>
       </c>
       <c r="D18">
-        <v>73.56999999999999</v>
+        <v>72.39</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.55</v>
+        <v>17.78</v>
       </c>
       <c r="G18">
-        <v>80.55</v>
+        <v>80.7</v>
       </c>
       <c r="H18">
-        <v>86.93000000000001</v>
+        <v>87.66</v>
       </c>
       <c r="I18">
-        <v>16.81</v>
+        <v>17.46</v>
       </c>
       <c r="J18">
-        <v>73.48</v>
+        <v>77.93000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1111,31 +1111,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>70.86</v>
+        <v>71.7</v>
       </c>
       <c r="C19">
-        <v>41.59</v>
+        <v>39.86</v>
       </c>
       <c r="D19">
-        <v>108.25</v>
+        <v>114.28</v>
       </c>
       <c r="E19">
-        <v>26.13</v>
+        <v>25.05</v>
       </c>
       <c r="F19">
-        <v>49.1</v>
+        <v>47.06</v>
       </c>
       <c r="G19">
-        <v>67.87</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="H19">
-        <v>89.73999999999999</v>
+        <v>91.45999999999999</v>
       </c>
       <c r="I19">
-        <v>35.7</v>
+        <v>34.21</v>
       </c>
       <c r="J19">
-        <v>77.78</v>
+        <v>76.64</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1143,31 +1143,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>71.39</v>
+        <v>70.34</v>
       </c>
       <c r="C20">
-        <v>65.59999999999999</v>
+        <v>62.86</v>
       </c>
       <c r="D20">
-        <v>76.3</v>
+        <v>73.12</v>
       </c>
       <c r="E20">
-        <v>22.29</v>
+        <v>21.36</v>
       </c>
       <c r="F20">
-        <v>55.65</v>
+        <v>64</v>
       </c>
       <c r="G20">
-        <v>61.08</v>
+        <v>58.54</v>
       </c>
       <c r="H20">
-        <v>65.45999999999999</v>
+        <v>62.74</v>
       </c>
       <c r="I20">
-        <v>46.62</v>
+        <v>44.68</v>
       </c>
       <c r="J20">
-        <v>78.81</v>
+        <v>82.98</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1175,31 +1175,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>105.07</v>
+        <v>102.61</v>
       </c>
       <c r="C21">
-        <v>120.13</v>
+        <v>115.12</v>
       </c>
       <c r="D21">
-        <v>89.63</v>
+        <v>90</v>
       </c>
       <c r="E21">
-        <v>37.33</v>
+        <v>35.77</v>
       </c>
       <c r="F21">
-        <v>64.93000000000001</v>
+        <v>62.22</v>
       </c>
       <c r="G21">
-        <v>128.43</v>
+        <v>124.54</v>
       </c>
       <c r="H21">
-        <v>95.65000000000001</v>
+        <v>92.92</v>
       </c>
       <c r="I21">
-        <v>54.74</v>
+        <v>53.75</v>
       </c>
       <c r="J21">
-        <v>79.34</v>
+        <v>78.23999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1207,31 +1207,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>73.81</v>
+        <v>70.73</v>
       </c>
       <c r="C22">
-        <v>60.04</v>
+        <v>57.54</v>
       </c>
       <c r="D22">
-        <v>71.84</v>
+        <v>67.45</v>
       </c>
       <c r="E22">
-        <v>9.33</v>
+        <v>8.94</v>
       </c>
       <c r="F22">
-        <v>41.74</v>
+        <v>40</v>
       </c>
       <c r="G22">
-        <v>75.61</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="H22">
-        <v>76.65000000000001</v>
+        <v>73.45</v>
       </c>
       <c r="I22">
-        <v>37.59</v>
+        <v>36.02</v>
       </c>
       <c r="J22">
-        <v>66.03</v>
+        <v>63.28</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1239,31 +1239,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>46.22</v>
+        <v>44.29</v>
       </c>
       <c r="C23">
-        <v>42.05</v>
+        <v>40.3</v>
       </c>
       <c r="D23">
-        <v>62.84</v>
+        <v>60.22</v>
       </c>
       <c r="E23">
-        <v>23.89</v>
+        <v>22.9</v>
       </c>
       <c r="F23">
-        <v>57.97</v>
+        <v>55.56</v>
       </c>
       <c r="G23">
-        <v>56.52</v>
+        <v>54.17</v>
       </c>
       <c r="H23">
-        <v>67.55</v>
+        <v>64.73999999999999</v>
       </c>
       <c r="I23">
-        <v>27.84</v>
+        <v>26.68</v>
       </c>
       <c r="J23">
-        <v>66.40000000000001</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1271,31 +1271,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>92.27</v>
+        <v>96.12</v>
       </c>
       <c r="C24">
-        <v>126.99</v>
+        <v>126.74</v>
       </c>
       <c r="D24">
-        <v>77.72</v>
+        <v>80.25</v>
       </c>
       <c r="E24">
-        <v>49.9</v>
+        <v>50.01</v>
       </c>
       <c r="F24">
-        <v>87.36</v>
+        <v>105.43</v>
       </c>
       <c r="G24">
-        <v>103.29</v>
+        <v>106.57</v>
       </c>
       <c r="H24">
-        <v>73.62</v>
+        <v>76.83</v>
       </c>
       <c r="I24">
-        <v>37.78</v>
+        <v>37.91</v>
       </c>
       <c r="J24">
-        <v>90.23999999999999</v>
+        <v>90.64</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1303,31 +1303,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>121.31</v>
+        <v>120.86</v>
       </c>
       <c r="C25">
-        <v>208.48</v>
+        <v>203.29</v>
       </c>
       <c r="D25">
-        <v>127.18</v>
+        <v>127.5</v>
       </c>
       <c r="E25">
-        <v>66.23</v>
+        <v>63.47</v>
       </c>
       <c r="F25">
-        <v>173.91</v>
+        <v>158.33</v>
       </c>
       <c r="G25">
-        <v>128.82</v>
+        <v>130.86</v>
       </c>
       <c r="H25">
-        <v>93.47</v>
+        <v>91.95</v>
       </c>
       <c r="I25">
-        <v>47.99</v>
+        <v>47.01</v>
       </c>
       <c r="J25">
-        <v>144.81</v>
+        <v>139.68</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1335,31 +1335,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>76.23</v>
+        <v>90.28</v>
       </c>
       <c r="C26">
-        <v>140.96</v>
+        <v>148.25</v>
       </c>
       <c r="D26">
-        <v>61.63</v>
+        <v>65.02</v>
       </c>
       <c r="E26">
-        <v>110.29</v>
+        <v>123.58</v>
       </c>
       <c r="F26">
-        <v>46.38</v>
+        <v>71.11</v>
       </c>
       <c r="G26">
-        <v>69.56999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="H26">
-        <v>86.48999999999999</v>
+        <v>106.91</v>
       </c>
       <c r="I26">
-        <v>23.3</v>
+        <v>26.07</v>
       </c>
       <c r="J26">
-        <v>82.79000000000001</v>
+        <v>82.64</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1367,31 +1367,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>59.24</v>
+        <v>71.7</v>
       </c>
       <c r="C27">
-        <v>61.84</v>
+        <v>61.14</v>
       </c>
       <c r="D27">
-        <v>78.27</v>
+        <v>83.97</v>
       </c>
       <c r="E27">
-        <v>57.69</v>
+        <v>55.28</v>
       </c>
       <c r="F27">
-        <v>17.39</v>
+        <v>66.67</v>
       </c>
       <c r="G27">
-        <v>101.45</v>
+        <v>108.33</v>
       </c>
       <c r="H27">
-        <v>46.13</v>
+        <v>48.68</v>
       </c>
       <c r="I27">
-        <v>26.7</v>
+        <v>26.92</v>
       </c>
       <c r="J27">
-        <v>63.64</v>
+        <v>75.18000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1399,31 +1399,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>98.88</v>
+        <v>100.62</v>
       </c>
       <c r="C28">
-        <v>81.16</v>
+        <v>82.03</v>
       </c>
       <c r="D28">
-        <v>55.99</v>
+        <v>61.65</v>
       </c>
       <c r="E28">
-        <v>69.18000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="F28">
-        <v>227.67</v>
+        <v>278.79</v>
       </c>
       <c r="G28">
-        <v>133.45</v>
+        <v>127.89</v>
       </c>
       <c r="H28">
-        <v>93.09999999999999</v>
+        <v>96.02</v>
       </c>
       <c r="I28">
-        <v>45.09</v>
+        <v>47.54</v>
       </c>
       <c r="J28">
-        <v>85.22</v>
+        <v>86.67</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1431,31 +1431,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>86.63</v>
+        <v>87.41</v>
       </c>
       <c r="C29">
-        <v>87.38</v>
+        <v>88.55</v>
       </c>
       <c r="D29">
-        <v>64.56999999999999</v>
+        <v>69.13</v>
       </c>
       <c r="E29">
-        <v>7.08</v>
+        <v>6.79</v>
       </c>
       <c r="F29">
-        <v>46.38</v>
+        <v>53.33</v>
       </c>
       <c r="G29">
-        <v>73.23</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="H29">
-        <v>58.91</v>
+        <v>59.74</v>
       </c>
       <c r="I29">
-        <v>52.1</v>
+        <v>49.92</v>
       </c>
       <c r="J29">
-        <v>58.12</v>
+        <v>59.07</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1463,31 +1463,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>85.44</v>
+        <v>81.88</v>
       </c>
       <c r="C30">
-        <v>128.05</v>
+        <v>122.71</v>
       </c>
       <c r="D30">
-        <v>58.47</v>
+        <v>56.03</v>
       </c>
       <c r="E30">
-        <v>14.42</v>
+        <v>13.82</v>
       </c>
       <c r="F30">
-        <v>42.81</v>
+        <v>41.03</v>
       </c>
       <c r="G30">
-        <v>94.01000000000001</v>
+        <v>90.09</v>
       </c>
       <c r="H30">
-        <v>56.21</v>
+        <v>53.87</v>
       </c>
       <c r="I30">
-        <v>26.37</v>
+        <v>25.27</v>
       </c>
       <c r="J30">
-        <v>71.15000000000001</v>
+        <v>68.18000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1495,31 +1495,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>76.03</v>
+        <v>74.14</v>
       </c>
       <c r="C31">
-        <v>96.81</v>
+        <v>95.05</v>
       </c>
       <c r="D31">
-        <v>92.16</v>
+        <v>91.77</v>
       </c>
       <c r="E31">
-        <v>20.11</v>
+        <v>21.03</v>
       </c>
       <c r="F31">
-        <v>93.36</v>
+        <v>91.23</v>
       </c>
       <c r="G31">
-        <v>93.69</v>
+        <v>92.47</v>
       </c>
       <c r="H31">
-        <v>81.64</v>
+        <v>81.3</v>
       </c>
       <c r="I31">
-        <v>31.76</v>
+        <v>31.65</v>
       </c>
       <c r="J31">
-        <v>101.82</v>
+        <v>99.25</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1527,31 +1527,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>82.45</v>
+        <v>81.5</v>
       </c>
       <c r="C32">
-        <v>129.96</v>
+        <v>127.72</v>
       </c>
       <c r="D32">
-        <v>89.13</v>
+        <v>94.68000000000001</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>8.94</v>
       </c>
       <c r="F32">
-        <v>147.83</v>
+        <v>150</v>
       </c>
       <c r="G32">
-        <v>80.39</v>
+        <v>85.93000000000001</v>
       </c>
       <c r="H32">
-        <v>77.69</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="I32">
-        <v>19.96</v>
+        <v>23.74</v>
       </c>
       <c r="J32">
-        <v>112.7</v>
+        <v>113.33</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1559,31 +1559,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>75.84999999999999</v>
+        <v>74.37</v>
       </c>
       <c r="C33">
-        <v>83.02</v>
+        <v>81.38</v>
       </c>
       <c r="D33">
-        <v>80</v>
+        <v>79.16</v>
       </c>
       <c r="E33">
-        <v>28</v>
+        <v>26.83</v>
       </c>
       <c r="F33">
-        <v>17.39</v>
+        <v>16.67</v>
       </c>
       <c r="G33">
-        <v>55.07</v>
+        <v>55.56</v>
       </c>
       <c r="H33">
-        <v>67.44</v>
+        <v>66.84</v>
       </c>
       <c r="I33">
-        <v>36.05</v>
+        <v>34.55</v>
       </c>
       <c r="J33">
-        <v>88.54000000000001</v>
+        <v>86.06</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1591,31 +1591,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>96.65000000000001</v>
+        <v>92.62</v>
       </c>
       <c r="C34">
-        <v>132.05</v>
+        <v>126.54</v>
       </c>
       <c r="D34">
-        <v>136.75</v>
+        <v>131.06</v>
       </c>
       <c r="E34">
-        <v>18.66</v>
+        <v>17.89</v>
       </c>
       <c r="F34">
-        <v>166.96</v>
+        <v>160</v>
       </c>
       <c r="G34">
-        <v>218.1</v>
+        <v>209.01</v>
       </c>
       <c r="H34">
-        <v>104.57</v>
+        <v>100.21</v>
       </c>
       <c r="I34">
-        <v>67.44</v>
+        <v>64.63</v>
       </c>
       <c r="J34">
-        <v>117.91</v>
+        <v>112.99</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1623,31 +1623,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>109.83</v>
+        <v>106.54</v>
       </c>
       <c r="C35">
-        <v>121.37</v>
+        <v>119.15</v>
       </c>
       <c r="D35">
-        <v>119.63</v>
+        <v>116.69</v>
       </c>
       <c r="E35">
-        <v>55.99</v>
+        <v>53.66</v>
       </c>
       <c r="F35">
-        <v>64.93000000000001</v>
+        <v>62.22</v>
       </c>
       <c r="G35">
-        <v>92.75</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="H35">
-        <v>95.83</v>
+        <v>102.1</v>
       </c>
       <c r="I35">
-        <v>41.54</v>
+        <v>39.81</v>
       </c>
       <c r="J35">
-        <v>144.28</v>
+        <v>138.27</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1655,31 +1655,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>37.51</v>
+        <v>35.95</v>
       </c>
       <c r="C36">
-        <v>38.61</v>
+        <v>39.35</v>
       </c>
       <c r="D36">
-        <v>61.57</v>
+        <v>59</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>69.56999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="G36">
-        <v>41.74</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>73.06</v>
+        <v>71.36</v>
       </c>
       <c r="I36">
-        <v>13.27</v>
+        <v>12.72</v>
       </c>
       <c r="J36">
-        <v>64.06999999999999</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1687,31 +1687,31 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>98.78</v>
+        <v>101.88</v>
       </c>
       <c r="C37">
-        <v>97.68000000000001</v>
+        <v>102.19</v>
       </c>
       <c r="D37">
-        <v>79.40000000000001</v>
+        <v>81.48</v>
       </c>
       <c r="E37">
-        <v>63.54</v>
+        <v>60.89</v>
       </c>
       <c r="F37">
-        <v>113.29</v>
+        <v>110.48</v>
       </c>
       <c r="G37">
-        <v>84.84999999999999</v>
+        <v>84.62</v>
       </c>
       <c r="H37">
-        <v>92.72</v>
+        <v>98.7</v>
       </c>
       <c r="I37">
-        <v>55.16</v>
+        <v>54.52</v>
       </c>
       <c r="J37">
-        <v>90.66</v>
+        <v>95.48</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1719,31 +1719,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>129.19</v>
+        <v>129.71</v>
       </c>
       <c r="C38">
-        <v>73.66</v>
+        <v>80.67</v>
       </c>
       <c r="D38">
-        <v>78.52</v>
+        <v>82.47</v>
       </c>
       <c r="E38">
-        <v>111.13</v>
+        <v>106.5</v>
       </c>
       <c r="F38">
-        <v>102.03</v>
+        <v>97.78</v>
       </c>
       <c r="G38">
-        <v>102.44</v>
+        <v>98.17</v>
       </c>
       <c r="H38">
-        <v>84.59999999999999</v>
+        <v>96.31</v>
       </c>
       <c r="I38">
-        <v>83.70999999999999</v>
+        <v>82.97</v>
       </c>
       <c r="J38">
-        <v>78.84</v>
+        <v>82.95999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1751,31 +1751,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>123.66</v>
+        <v>120.94</v>
       </c>
       <c r="C39">
-        <v>96.23999999999999</v>
+        <v>92.23</v>
       </c>
       <c r="D39">
-        <v>116.08</v>
+        <v>113.24</v>
       </c>
       <c r="E39">
-        <v>113.68</v>
+        <v>108.94</v>
       </c>
       <c r="F39">
-        <v>96.31999999999999</v>
+        <v>92.31</v>
       </c>
       <c r="G39">
-        <v>60.87</v>
+        <v>58.33</v>
       </c>
       <c r="H39">
-        <v>113.7</v>
+        <v>109.49</v>
       </c>
       <c r="I39">
-        <v>51.91</v>
+        <v>49.75</v>
       </c>
       <c r="J39">
-        <v>120.24</v>
+        <v>115.23</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1783,31 +1783,31 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>96.54000000000001</v>
+        <v>103.6</v>
       </c>
       <c r="C40">
-        <v>144.72</v>
+        <v>150.85</v>
       </c>
       <c r="D40">
-        <v>75.91</v>
+        <v>76.73</v>
       </c>
       <c r="E40">
-        <v>28.84</v>
+        <v>27.64</v>
       </c>
       <c r="F40">
-        <v>204.06</v>
+        <v>204.44</v>
       </c>
       <c r="G40">
-        <v>105.16</v>
+        <v>100.78</v>
       </c>
       <c r="H40">
-        <v>79.05</v>
+        <v>87.63</v>
       </c>
       <c r="I40">
-        <v>51.79</v>
+        <v>52.79</v>
       </c>
       <c r="J40">
-        <v>98.55</v>
+        <v>102.22</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1815,31 +1815,31 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>77.72</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="C41">
-        <v>100.17</v>
+        <v>114.37</v>
       </c>
       <c r="D41">
-        <v>73.23999999999999</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E41">
-        <v>30.75</v>
+        <v>29.47</v>
       </c>
       <c r="F41">
-        <v>95.65000000000001</v>
+        <v>91.67</v>
       </c>
       <c r="G41">
-        <v>72.45999999999999</v>
+        <v>69.44</v>
       </c>
       <c r="H41">
-        <v>96.92</v>
+        <v>93.84999999999999</v>
       </c>
       <c r="I41">
-        <v>49.98</v>
+        <v>47.9</v>
       </c>
       <c r="J41">
-        <v>74.69</v>
+        <v>84.20999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1847,31 +1847,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>60.51</v>
+        <v>63.8</v>
       </c>
       <c r="C42">
-        <v>74.62</v>
+        <v>84.17</v>
       </c>
       <c r="D42">
-        <v>53.96</v>
+        <v>61.48</v>
       </c>
       <c r="E42">
-        <v>39.2</v>
+        <v>37.57</v>
       </c>
       <c r="F42">
-        <v>50.59</v>
+        <v>48.48</v>
       </c>
       <c r="G42">
-        <v>61.48</v>
+        <v>86.81999999999999</v>
       </c>
       <c r="H42">
-        <v>86.18000000000001</v>
+        <v>101.06</v>
       </c>
       <c r="I42">
-        <v>27.01</v>
+        <v>28.39</v>
       </c>
       <c r="J42">
-        <v>81.01000000000001</v>
+        <v>92.83</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SalesTrend/SalesTrend_CMT.xlsx
+++ b/Data/SalesTrend/SalesTrend_CMT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,129 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CMT</t>
+  </si>
+  <si>
+    <t>CMT10</t>
+  </si>
+  <si>
+    <t>CMT11</t>
+  </si>
+  <si>
+    <t>CMT12</t>
+  </si>
+  <si>
+    <t>CMT13</t>
+  </si>
+  <si>
+    <t>CMT14</t>
+  </si>
+  <si>
+    <t>CMT15</t>
+  </si>
+  <si>
+    <t>CMT16</t>
+  </si>
+  <si>
+    <t>CMT20</t>
+  </si>
+  <si>
+    <t>CMT21</t>
+  </si>
+  <si>
+    <t>CMT22</t>
+  </si>
+  <si>
+    <t>CMT23</t>
+  </si>
+  <si>
+    <t>CMT24</t>
+  </si>
+  <si>
+    <t>CMT25</t>
+  </si>
+  <si>
+    <t>CMT26</t>
+  </si>
+  <si>
+    <t>CMT30</t>
+  </si>
+  <si>
+    <t>CMT31</t>
+  </si>
+  <si>
+    <t>CMT32</t>
+  </si>
+  <si>
+    <t>CMT33</t>
+  </si>
+  <si>
+    <t>CMT34</t>
+  </si>
+  <si>
+    <t>CMT35</t>
+  </si>
+  <si>
+    <t>CMT36</t>
+  </si>
+  <si>
+    <t>CMT40</t>
+  </si>
+  <si>
+    <t>CMT41</t>
+  </si>
+  <si>
+    <t>CMT42</t>
+  </si>
+  <si>
+    <t>CMT43</t>
+  </si>
+  <si>
+    <t>CMT44</t>
+  </si>
+  <si>
+    <t>CMT45</t>
+  </si>
+  <si>
+    <t>CMT46</t>
+  </si>
+  <si>
+    <t>CMT50</t>
+  </si>
+  <si>
+    <t>CMT51</t>
+  </si>
+  <si>
+    <t>CMT52</t>
+  </si>
+  <si>
+    <t>CMT53</t>
+  </si>
+  <si>
+    <t>CMT54</t>
+  </si>
+  <si>
+    <t>CMT55</t>
+  </si>
+  <si>
+    <t>CMT60</t>
+  </si>
+  <si>
+    <t>CMT61</t>
+  </si>
+  <si>
+    <t>CMT62</t>
+  </si>
+  <si>
+    <t>CMT63</t>
+  </si>
+  <si>
+    <t>CMT64</t>
+  </si>
+  <si>
+    <t>CMT65</t>
   </si>
 </sst>
 </file>
@@ -401,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +562,1318 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>46.16</v>
+      </c>
+      <c r="C2">
+        <v>49.61</v>
+      </c>
+      <c r="D2">
+        <v>41.61</v>
+      </c>
+      <c r="E2">
+        <v>31.32</v>
+      </c>
+      <c r="F2">
+        <v>45.82</v>
+      </c>
+      <c r="G2">
+        <v>37.28</v>
+      </c>
+      <c r="H2">
+        <v>46.55</v>
+      </c>
+      <c r="I2">
+        <v>21.38</v>
+      </c>
+      <c r="J2">
+        <v>49.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>26.55</v>
+      </c>
+      <c r="C3">
+        <v>62.12</v>
+      </c>
+      <c r="D3">
+        <v>34.01</v>
+      </c>
+      <c r="E3">
+        <v>55.47</v>
+      </c>
+      <c r="F3">
+        <v>33.88</v>
+      </c>
+      <c r="G3">
+        <v>48.53</v>
+      </c>
+      <c r="H3">
+        <v>69.56</v>
+      </c>
+      <c r="I3">
+        <v>27.46</v>
+      </c>
+      <c r="J3">
+        <v>50.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>32.6</v>
+      </c>
+      <c r="C4">
+        <v>110.92</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>77.5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>49.21</v>
+      </c>
+      <c r="H4">
+        <v>52.69</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>85.40000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>13.79</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>204.26</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>44.93</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>28.72</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>187.88</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>28.08</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>6.71</v>
+      </c>
+      <c r="C7">
+        <v>35.63</v>
+      </c>
+      <c r="D7">
+        <v>19.45</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>39.74</v>
+      </c>
+      <c r="H7">
+        <v>12.04</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>29.96</v>
+      </c>
+      <c r="C8">
+        <v>59.7</v>
+      </c>
+      <c r="D8">
+        <v>32.64</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>41.33</v>
+      </c>
+      <c r="H8">
+        <v>93.34</v>
+      </c>
+      <c r="I8">
+        <v>42.45</v>
+      </c>
+      <c r="J8">
+        <v>43.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>70.27</v>
+      </c>
+      <c r="C9">
+        <v>184.52</v>
+      </c>
+      <c r="D9">
+        <v>133.31</v>
+      </c>
+      <c r="E9">
+        <v>113.76</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>68.89</v>
+      </c>
+      <c r="H9">
+        <v>147.41</v>
+      </c>
+      <c r="I9">
+        <v>95.20999999999999</v>
+      </c>
+      <c r="J9">
+        <v>67.76000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>55.47</v>
+      </c>
+      <c r="C10">
+        <v>41.16</v>
+      </c>
+      <c r="D10">
+        <v>41.79</v>
+      </c>
+      <c r="E10">
+        <v>25.62</v>
+      </c>
+      <c r="F10">
+        <v>69.81999999999999</v>
+      </c>
+      <c r="G10">
+        <v>25.02</v>
+      </c>
+      <c r="H10">
+        <v>50.28</v>
+      </c>
+      <c r="I10">
+        <v>27.56</v>
+      </c>
+      <c r="J10">
+        <v>54.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>13.94</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>43.97</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>187.88</v>
+      </c>
+      <c r="G11">
+        <v>12.3</v>
+      </c>
+      <c r="H11">
+        <v>4.73</v>
+      </c>
+      <c r="I11">
+        <v>16.95</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>99.51000000000001</v>
+      </c>
+      <c r="I12">
+        <v>45.72</v>
+      </c>
+      <c r="J12">
+        <v>16.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>22.38</v>
+      </c>
+      <c r="C13">
+        <v>29.68</v>
+      </c>
+      <c r="D13">
+        <v>46.77</v>
+      </c>
+      <c r="E13">
+        <v>60.19</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>15.2</v>
+      </c>
+      <c r="H13">
+        <v>36.94</v>
+      </c>
+      <c r="I13">
+        <v>32.79</v>
+      </c>
+      <c r="J13">
+        <v>40.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>85.58</v>
+      </c>
+      <c r="C14">
+        <v>70.68000000000001</v>
+      </c>
+      <c r="D14">
+        <v>35.07</v>
+      </c>
+      <c r="E14">
+        <v>57.14</v>
+      </c>
+      <c r="F14">
+        <v>86.11</v>
+      </c>
+      <c r="G14">
+        <v>11.88</v>
+      </c>
+      <c r="H14">
+        <v>54.71</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>49.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>69.62</v>
+      </c>
+      <c r="C15">
+        <v>70.92</v>
+      </c>
+      <c r="D15">
+        <v>74.31</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>14.55</v>
+      </c>
+      <c r="H15">
+        <v>41.44</v>
+      </c>
+      <c r="I15">
+        <v>31.78</v>
+      </c>
+      <c r="J15">
+        <v>48.63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>106.33</v>
+      </c>
+      <c r="C16">
+        <v>58.89</v>
+      </c>
+      <c r="D16">
+        <v>38.85</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>129.17</v>
+      </c>
+      <c r="G16">
+        <v>101.64</v>
+      </c>
+      <c r="H16">
+        <v>78.25</v>
+      </c>
+      <c r="I16">
+        <v>47.36</v>
+      </c>
+      <c r="J16">
+        <v>150.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>25.08</v>
+      </c>
+      <c r="C17">
+        <v>15.43</v>
+      </c>
+      <c r="D17">
+        <v>29.86</v>
+      </c>
+      <c r="E17">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>28.39</v>
+      </c>
+      <c r="H17">
+        <v>32.27</v>
+      </c>
+      <c r="I17">
+        <v>12.06</v>
+      </c>
+      <c r="J17">
+        <v>38.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>14.04</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>19.62</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>23.41</v>
+      </c>
+      <c r="C19">
+        <v>25.51</v>
+      </c>
+      <c r="D19">
+        <v>37.82</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>54.39</v>
+      </c>
+      <c r="H19">
+        <v>25.51</v>
+      </c>
+      <c r="I19">
+        <v>13.59</v>
+      </c>
+      <c r="J19">
+        <v>27.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>11.3</v>
+      </c>
+      <c r="C20">
+        <v>16.45</v>
+      </c>
+      <c r="D20">
+        <v>10.77</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>27.52</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>22.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>61.76</v>
+      </c>
+      <c r="C21">
+        <v>12.42</v>
+      </c>
+      <c r="D21">
+        <v>92.56999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>50.16</v>
+      </c>
+      <c r="H21">
+        <v>49.53</v>
+      </c>
+      <c r="I21">
+        <v>22.2</v>
+      </c>
+      <c r="J21">
+        <v>111.71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>34.66</v>
+      </c>
+      <c r="C22">
+        <v>10.16</v>
+      </c>
+      <c r="D22">
+        <v>21.24</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>34.44</v>
+      </c>
+      <c r="H22">
+        <v>32.01</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>35.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>15.83</v>
+      </c>
+      <c r="C23">
+        <v>37.9</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>51.67</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>16.4</v>
+      </c>
+      <c r="H23">
+        <v>9.66</v>
+      </c>
+      <c r="I23">
+        <v>44.08</v>
+      </c>
+      <c r="J23">
+        <v>51.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="C24">
+        <v>66.56999999999999</v>
+      </c>
+      <c r="D24">
+        <v>44.9</v>
+      </c>
+      <c r="E24">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="F24">
+        <v>82.2</v>
+      </c>
+      <c r="G24">
+        <v>36.82</v>
+      </c>
+      <c r="H24">
+        <v>53.91</v>
+      </c>
+      <c r="I24">
+        <v>25.45</v>
+      </c>
+      <c r="J24">
+        <v>51.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>87.88</v>
+      </c>
+      <c r="C25">
+        <v>127.31</v>
+      </c>
+      <c r="D25">
+        <v>57.7</v>
+      </c>
+      <c r="E25">
+        <v>110.36</v>
+      </c>
+      <c r="F25">
+        <v>51.67</v>
+      </c>
+      <c r="G25">
+        <v>80.52</v>
+      </c>
+      <c r="H25">
+        <v>78.84999999999999</v>
+      </c>
+      <c r="I25">
+        <v>40.66</v>
+      </c>
+      <c r="J25">
+        <v>91.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>83.06999999999999</v>
+      </c>
+      <c r="C26">
+        <v>87.37</v>
+      </c>
+      <c r="D26">
+        <v>54.48</v>
+      </c>
+      <c r="E26">
+        <v>120.39</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>57.41</v>
+      </c>
+      <c r="H26">
+        <v>32.55</v>
+      </c>
+      <c r="I26">
+        <v>15.14</v>
+      </c>
+      <c r="J26">
+        <v>59.29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>37.16</v>
+      </c>
+      <c r="C27">
+        <v>18.84</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>23.22</v>
+      </c>
+      <c r="H27">
+        <v>18.52</v>
+      </c>
+      <c r="I27">
+        <v>9.01</v>
+      </c>
+      <c r="J27">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>47.82</v>
+      </c>
+      <c r="C28">
+        <v>21.53</v>
+      </c>
+      <c r="D28">
+        <v>10.24</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>12.16</v>
+      </c>
+      <c r="H28">
+        <v>45.98</v>
+      </c>
+      <c r="I28">
+        <v>68</v>
+      </c>
+      <c r="J28">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>91.23999999999999</v>
+      </c>
+      <c r="C29">
+        <v>58.56</v>
+      </c>
+      <c r="D29">
+        <v>57.81</v>
+      </c>
+      <c r="E29">
+        <v>85.28</v>
+      </c>
+      <c r="F29">
+        <v>172.22</v>
+      </c>
+      <c r="G29">
+        <v>36.9</v>
+      </c>
+      <c r="H29">
+        <v>146.15</v>
+      </c>
+      <c r="I29">
+        <v>13.1</v>
+      </c>
+      <c r="J29">
+        <v>64.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>126.7</v>
+      </c>
+      <c r="C30">
+        <v>35.38</v>
+      </c>
+      <c r="D30">
+        <v>71.31</v>
+      </c>
+      <c r="E30">
+        <v>110.36</v>
+      </c>
+      <c r="F30">
+        <v>413.33</v>
+      </c>
+      <c r="G30">
+        <v>17.22</v>
+      </c>
+      <c r="H30">
+        <v>26.42</v>
+      </c>
+      <c r="I30">
+        <v>7.29</v>
+      </c>
+      <c r="J30">
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>22.82</v>
+      </c>
+      <c r="C31">
+        <v>50.92</v>
+      </c>
+      <c r="D31">
+        <v>46.05</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>30.39</v>
+      </c>
+      <c r="G31">
+        <v>23.62</v>
+      </c>
+      <c r="H31">
+        <v>42.36</v>
+      </c>
+      <c r="I31">
+        <v>15.7</v>
+      </c>
+      <c r="J31">
+        <v>47.31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>22.78</v>
+      </c>
+      <c r="C32">
+        <v>68.13</v>
+      </c>
+      <c r="D32">
+        <v>52.36</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>54.39</v>
+      </c>
+      <c r="G32">
+        <v>30.85</v>
+      </c>
+      <c r="H32">
+        <v>30.87</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>36.58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>29.87</v>
+      </c>
+      <c r="C33">
+        <v>51.26</v>
+      </c>
+      <c r="D33">
+        <v>38.69</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>20.64</v>
+      </c>
+      <c r="I33">
+        <v>20.75</v>
+      </c>
+      <c r="J33">
+        <v>60.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>9.57</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>24.37</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>68.89</v>
+      </c>
+      <c r="G34">
+        <v>45.59</v>
+      </c>
+      <c r="H34">
+        <v>47.07</v>
+      </c>
+      <c r="I34">
+        <v>41.09</v>
+      </c>
+      <c r="J34">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>38.41</v>
+      </c>
+      <c r="C35">
+        <v>101.38</v>
+      </c>
+      <c r="D35">
+        <v>115.1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>35.23</v>
+      </c>
+      <c r="H35">
+        <v>82.67</v>
+      </c>
+      <c r="I35">
+        <v>5.39</v>
+      </c>
+      <c r="J35">
+        <v>113.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>15.37</v>
+      </c>
+      <c r="C36">
+        <v>29.58</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>35.48</v>
+      </c>
+      <c r="I36">
+        <v>14.97</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>53.14</v>
+      </c>
+      <c r="C37">
+        <v>47.9</v>
+      </c>
+      <c r="D37">
+        <v>54.43</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>58.22</v>
+      </c>
+      <c r="G37">
+        <v>62.63</v>
+      </c>
+      <c r="H37">
+        <v>37.33</v>
+      </c>
+      <c r="I37">
+        <v>19.54</v>
+      </c>
+      <c r="J37">
+        <v>59.31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>70.61</v>
+      </c>
+      <c r="C38">
+        <v>91.26000000000001</v>
+      </c>
+      <c r="D38">
+        <v>75.55</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>137.78</v>
+      </c>
+      <c r="G38">
+        <v>38.75</v>
+      </c>
+      <c r="H38">
+        <v>69.06</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>141.55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>129.09</v>
+      </c>
+      <c r="C39">
+        <v>32.84</v>
+      </c>
+      <c r="D39">
+        <v>61.88</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>126.9</v>
+      </c>
+      <c r="H39">
+        <v>36.9</v>
+      </c>
+      <c r="I39">
+        <v>19.43</v>
+      </c>
+      <c r="J39">
+        <v>44.93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>19.31</v>
+      </c>
+      <c r="C40">
+        <v>74.27</v>
+      </c>
+      <c r="D40">
+        <v>54.85</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>98.41</v>
+      </c>
+      <c r="G40">
+        <v>76.54000000000001</v>
+      </c>
+      <c r="H40">
+        <v>44.76</v>
+      </c>
+      <c r="I40">
+        <v>35.78</v>
+      </c>
+      <c r="J40">
+        <v>59.29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>60.86</v>
+      </c>
+      <c r="C41">
+        <v>23.76</v>
+      </c>
+      <c r="D41">
+        <v>58.62</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>61.39</v>
+      </c>
+      <c r="H41">
+        <v>20.21</v>
+      </c>
+      <c r="I41">
+        <v>39.35</v>
+      </c>
+      <c r="J41">
+        <v>60.78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>14.69</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/SalesTrend/SalesTrend_CMT.xlsx
+++ b/Data/SalesTrend/SalesTrend_CMT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>BEMPID</t>
+  </si>
+  <si>
+    <t>AROTIDE</t>
+  </si>
+  <si>
+    <t>FOBUNID</t>
   </si>
   <si>
     <t>CMT</t>
@@ -524,13 +533,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,138 +570,183 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>46.16</v>
+        <v>58.32</v>
       </c>
       <c r="C2">
-        <v>49.61</v>
+        <v>64.75</v>
       </c>
       <c r="D2">
-        <v>41.61</v>
+        <v>53.24</v>
       </c>
       <c r="E2">
-        <v>31.32</v>
+        <v>24.18</v>
       </c>
       <c r="F2">
-        <v>45.82</v>
+        <v>72.66</v>
       </c>
       <c r="G2">
-        <v>37.28</v>
+        <v>70.25</v>
       </c>
       <c r="H2">
-        <v>46.55</v>
+        <v>60.4</v>
       </c>
       <c r="I2">
-        <v>21.38</v>
+        <v>27.87</v>
       </c>
       <c r="J2">
-        <v>49.53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>60.49</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>45.29</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>26.55</v>
+        <v>23.59</v>
       </c>
       <c r="C3">
-        <v>62.12</v>
+        <v>35.58</v>
       </c>
       <c r="D3">
-        <v>34.01</v>
+        <v>30.7</v>
       </c>
       <c r="E3">
-        <v>55.47</v>
+        <v>23.77</v>
       </c>
       <c r="F3">
-        <v>33.88</v>
+        <v>36.3</v>
       </c>
       <c r="G3">
-        <v>48.53</v>
+        <v>58.9</v>
       </c>
       <c r="H3">
-        <v>69.56</v>
+        <v>55.56</v>
       </c>
       <c r="I3">
-        <v>27.46</v>
+        <v>20.1</v>
       </c>
       <c r="J3">
-        <v>50.34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>38.61</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>44.26</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>32.6</v>
+        <v>26.37</v>
       </c>
       <c r="C4">
-        <v>110.92</v>
+        <v>51.29</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>77.5</v>
+        <v>33.21</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>49.21</v>
+        <v>31.63</v>
       </c>
       <c r="H4">
-        <v>52.69</v>
+        <v>32.05</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>85.40000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>36.6</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>13.79</v>
+        <v>11.82</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>11.72</v>
       </c>
       <c r="E5">
-        <v>204.26</v>
+        <v>87.54000000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.93</v>
+        <v>19.25</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>16.22</v>
       </c>
       <c r="I5">
-        <v>28.72</v>
+        <v>12.31</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>9.23</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>40.96</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -707,13 +761,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>187.88</v>
+        <v>80.52</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>17.03</v>
       </c>
       <c r="H6">
-        <v>28.08</v>
+        <v>12.03</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -721,51 +775,69 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>6.71</v>
+        <v>25.9</v>
       </c>
       <c r="C7">
-        <v>35.63</v>
+        <v>24.82</v>
       </c>
       <c r="D7">
-        <v>19.45</v>
+        <v>8.34</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>98.41</v>
       </c>
       <c r="G7">
-        <v>39.74</v>
+        <v>85.16</v>
       </c>
       <c r="H7">
-        <v>12.04</v>
+        <v>49.55</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.27</v>
       </c>
       <c r="J7">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>29.96</v>
+        <v>36.69</v>
       </c>
       <c r="C8">
-        <v>59.7</v>
+        <v>35.43</v>
       </c>
       <c r="D8">
-        <v>32.64</v>
+        <v>41.97</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -774,126 +846,162 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>41.33</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="H8">
-        <v>93.34</v>
+        <v>69.87</v>
       </c>
       <c r="I8">
-        <v>42.45</v>
+        <v>22.56</v>
       </c>
       <c r="J8">
-        <v>43.51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>32.63</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>99.45</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>70.27</v>
+        <v>35.82</v>
       </c>
       <c r="C9">
-        <v>184.52</v>
+        <v>114.67</v>
       </c>
       <c r="D9">
-        <v>133.31</v>
+        <v>81.34</v>
       </c>
       <c r="E9">
-        <v>113.76</v>
+        <v>48.75</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>34.07</v>
       </c>
       <c r="G9">
-        <v>68.89</v>
+        <v>79.53</v>
       </c>
       <c r="H9">
-        <v>147.41</v>
+        <v>104.89</v>
       </c>
       <c r="I9">
-        <v>95.20999999999999</v>
+        <v>72.09</v>
       </c>
       <c r="J9">
-        <v>67.76000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>79.86</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>138.04</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>55.47</v>
+        <v>56.3</v>
       </c>
       <c r="C10">
-        <v>41.16</v>
+        <v>46.94</v>
       </c>
       <c r="D10">
-        <v>41.79</v>
+        <v>46.37</v>
       </c>
       <c r="E10">
-        <v>25.62</v>
+        <v>21.96</v>
       </c>
       <c r="F10">
-        <v>69.81999999999999</v>
+        <v>71.81</v>
       </c>
       <c r="G10">
-        <v>25.02</v>
+        <v>61.27</v>
       </c>
       <c r="H10">
-        <v>50.28</v>
+        <v>49.64</v>
       </c>
       <c r="I10">
-        <v>27.56</v>
+        <v>28.19</v>
       </c>
       <c r="J10">
-        <v>54.29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>51.79</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>23.48</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>13.94</v>
+        <v>12.62</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>43.97</v>
+        <v>18.84</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>48.75</v>
       </c>
       <c r="F11">
-        <v>187.88</v>
+        <v>161.04</v>
       </c>
       <c r="G11">
-        <v>12.3</v>
+        <v>51.22</v>
       </c>
       <c r="H11">
-        <v>4.73</v>
+        <v>2.03</v>
       </c>
       <c r="I11">
-        <v>16.95</v>
+        <v>7.27</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>24.6</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>113.71</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>56.71</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>30.21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -902,94 +1010,121 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>42.18</v>
       </c>
       <c r="H12">
-        <v>99.51000000000001</v>
+        <v>75.45</v>
       </c>
       <c r="I12">
-        <v>45.72</v>
+        <v>74.14</v>
       </c>
       <c r="J12">
-        <v>16.94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>58.08</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>22.38</v>
+        <v>62.43</v>
       </c>
       <c r="C13">
-        <v>29.68</v>
+        <v>93.66</v>
       </c>
       <c r="D13">
-        <v>46.77</v>
+        <v>81.25</v>
       </c>
       <c r="E13">
-        <v>60.19</v>
+        <v>51.59</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>36.9</v>
       </c>
       <c r="G13">
-        <v>15.2</v>
+        <v>71.64</v>
       </c>
       <c r="H13">
-        <v>36.94</v>
+        <v>68.34</v>
       </c>
       <c r="I13">
-        <v>32.79</v>
+        <v>35.69</v>
       </c>
       <c r="J13">
-        <v>40.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>44.63</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>11.62</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>85.58</v>
+        <v>54.4</v>
       </c>
       <c r="C14">
-        <v>70.68000000000001</v>
+        <v>39.69</v>
       </c>
       <c r="D14">
-        <v>35.07</v>
+        <v>44.52</v>
       </c>
       <c r="E14">
-        <v>57.14</v>
+        <v>24.49</v>
       </c>
       <c r="F14">
-        <v>86.11</v>
+        <v>110.71</v>
       </c>
       <c r="G14">
-        <v>11.88</v>
+        <v>40</v>
       </c>
       <c r="H14">
-        <v>54.71</v>
+        <v>41.03</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14">
-        <v>49.21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>30.13</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>60.96</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>69.62</v>
+        <v>46.89</v>
       </c>
       <c r="C15">
-        <v>70.92</v>
+        <v>41.25</v>
       </c>
       <c r="D15">
-        <v>74.31</v>
+        <v>42.46</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -998,94 +1133,121 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.55</v>
+        <v>30.3</v>
       </c>
       <c r="H15">
-        <v>41.44</v>
+        <v>51.06</v>
       </c>
       <c r="I15">
-        <v>31.78</v>
+        <v>18.04</v>
       </c>
       <c r="J15">
-        <v>48.63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>72.94</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>121.93</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16">
-        <v>106.33</v>
+        <v>63.8</v>
       </c>
       <c r="C16">
-        <v>58.89</v>
+        <v>32.12</v>
       </c>
       <c r="D16">
-        <v>38.85</v>
+        <v>42.29</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>129.17</v>
+        <v>55.36</v>
       </c>
       <c r="G16">
-        <v>101.64</v>
+        <v>143.13</v>
       </c>
       <c r="H16">
-        <v>78.25</v>
+        <v>56.22</v>
       </c>
       <c r="I16">
-        <v>47.36</v>
+        <v>45.46</v>
       </c>
       <c r="J16">
-        <v>150.69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>92.26000000000001</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>25.08</v>
+        <v>47.97</v>
       </c>
       <c r="C17">
-        <v>15.43</v>
+        <v>34.31</v>
       </c>
       <c r="D17">
-        <v>29.86</v>
+        <v>57.4</v>
       </c>
       <c r="E17">
-        <v>8.960000000000001</v>
+        <v>3.84</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="G17">
-        <v>28.39</v>
+        <v>61.7</v>
       </c>
       <c r="H17">
-        <v>32.27</v>
+        <v>60.7</v>
       </c>
       <c r="I17">
-        <v>12.06</v>
+        <v>16.9</v>
       </c>
       <c r="J17">
-        <v>38.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>59.13</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>31.14</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>14.04</v>
+        <v>25.39</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>33.51</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>37.01</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1097,27 +1259,36 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19.62</v>
+        <v>41.48</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>22.79</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>23.41</v>
+        <v>47.93</v>
       </c>
       <c r="C19">
-        <v>25.51</v>
+        <v>16.4</v>
       </c>
       <c r="D19">
-        <v>37.82</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1126,751 +1297,967 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>54.39</v>
+        <v>63.27</v>
       </c>
       <c r="H19">
-        <v>25.51</v>
+        <v>51.39</v>
       </c>
       <c r="I19">
-        <v>13.59</v>
+        <v>11.65</v>
       </c>
       <c r="J19">
-        <v>27.19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>62.16</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>11.3</v>
+        <v>49.96</v>
       </c>
       <c r="C20">
-        <v>16.45</v>
+        <v>62.06</v>
       </c>
       <c r="D20">
-        <v>10.77</v>
+        <v>78.45999999999999</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>20.13</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="H20">
-        <v>27.52</v>
+        <v>80.2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>48.82</v>
       </c>
       <c r="J20">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>130.03</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>83.04000000000001</v>
+      </c>
+      <c r="C21">
+        <v>44.71</v>
+      </c>
+      <c r="D21">
+        <v>97.87</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>17.03</v>
+      </c>
+      <c r="G21">
+        <v>96.43000000000001</v>
+      </c>
+      <c r="H21">
+        <v>77.59</v>
+      </c>
+      <c r="I21">
+        <v>22.37</v>
+      </c>
+      <c r="J21">
+        <v>115.7</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>65.02</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="C22">
+        <v>31.56</v>
+      </c>
+      <c r="D22">
+        <v>22.76</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>76.97</v>
+      </c>
+      <c r="H22">
+        <v>56.52</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>45.42</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>39.96</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>21.65</v>
+      </c>
+      <c r="C23">
+        <v>20.57</v>
+      </c>
+      <c r="D23">
+        <v>12.05</v>
+      </c>
+      <c r="E23">
         <v>22.14</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>61.76</v>
-      </c>
-      <c r="C21">
-        <v>12.42</v>
-      </c>
-      <c r="D21">
-        <v>92.56999999999999</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>50.16</v>
-      </c>
-      <c r="H21">
-        <v>49.53</v>
-      </c>
-      <c r="I21">
-        <v>22.2</v>
-      </c>
-      <c r="J21">
-        <v>111.71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>34.66</v>
-      </c>
-      <c r="C22">
-        <v>10.16</v>
-      </c>
-      <c r="D22">
-        <v>21.24</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>34.44</v>
-      </c>
-      <c r="H22">
-        <v>32.01</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>35.33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>15.83</v>
-      </c>
-      <c r="C23">
-        <v>37.9</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>51.67</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.4</v>
+        <v>28.12</v>
       </c>
       <c r="H23">
-        <v>9.66</v>
+        <v>24.83</v>
       </c>
       <c r="I23">
-        <v>44.08</v>
+        <v>18.89</v>
       </c>
       <c r="J23">
-        <v>51.16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>39.46</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>80.59999999999999</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="C24">
-        <v>66.56999999999999</v>
+        <v>107.06</v>
       </c>
       <c r="D24">
-        <v>44.9</v>
+        <v>64.73</v>
       </c>
       <c r="E24">
-        <v>76.18000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="F24">
-        <v>82.2</v>
+        <v>156.01</v>
       </c>
       <c r="G24">
-        <v>36.82</v>
+        <v>83.7</v>
       </c>
       <c r="H24">
-        <v>53.91</v>
+        <v>69.76000000000001</v>
       </c>
       <c r="I24">
-        <v>25.45</v>
+        <v>39.13</v>
       </c>
       <c r="J24">
-        <v>51.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>66.61</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>53.66</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B25">
-        <v>87.88</v>
+        <v>140.94</v>
       </c>
       <c r="C25">
-        <v>127.31</v>
+        <v>264.62</v>
       </c>
       <c r="D25">
-        <v>57.7</v>
+        <v>121.04</v>
       </c>
       <c r="E25">
-        <v>110.36</v>
+        <v>70.94</v>
       </c>
       <c r="F25">
-        <v>51.67</v>
+        <v>155</v>
       </c>
       <c r="G25">
-        <v>80.52</v>
+        <v>164.33</v>
       </c>
       <c r="H25">
-        <v>78.84999999999999</v>
+        <v>103.4</v>
       </c>
       <c r="I25">
-        <v>40.66</v>
+        <v>72.38</v>
       </c>
       <c r="J25">
-        <v>91.97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>88.11</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>121.93</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B26">
-        <v>83.06999999999999</v>
+        <v>74.03</v>
       </c>
       <c r="C26">
-        <v>87.37</v>
+        <v>92.45</v>
       </c>
       <c r="D26">
         <v>54.48</v>
       </c>
       <c r="E26">
-        <v>120.39</v>
+        <v>77.39</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>147.62</v>
       </c>
       <c r="G26">
-        <v>57.41</v>
+        <v>64.44</v>
       </c>
       <c r="H26">
-        <v>32.55</v>
+        <v>73.23</v>
       </c>
       <c r="I26">
-        <v>15.14</v>
+        <v>6.49</v>
       </c>
       <c r="J26">
-        <v>59.29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>68.97</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27">
-        <v>37.16</v>
+        <v>59.36</v>
       </c>
       <c r="C27">
-        <v>18.84</v>
+        <v>75.38</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>48.12</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>98.89</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>236.19</v>
       </c>
       <c r="G27">
-        <v>23.22</v>
+        <v>46.92</v>
       </c>
       <c r="H27">
-        <v>18.52</v>
+        <v>62.7</v>
       </c>
       <c r="I27">
-        <v>9.01</v>
+        <v>16.37</v>
       </c>
       <c r="J27">
-        <v>12.45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>58.69</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>57.11</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B28">
-        <v>47.82</v>
+        <v>67.09</v>
       </c>
       <c r="C28">
-        <v>21.53</v>
+        <v>16.4</v>
       </c>
       <c r="D28">
-        <v>10.24</v>
+        <v>44.23</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>81.19</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>55.36</v>
       </c>
       <c r="G28">
-        <v>12.16</v>
+        <v>83.36</v>
       </c>
       <c r="H28">
-        <v>45.98</v>
+        <v>60.22</v>
       </c>
       <c r="I28">
-        <v>68</v>
+        <v>91.59</v>
       </c>
       <c r="J28">
-        <v>14.98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>51.35</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>91.23999999999999</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="C29">
-        <v>58.56</v>
+        <v>60.24</v>
       </c>
       <c r="D29">
-        <v>57.81</v>
+        <v>54.04</v>
       </c>
       <c r="E29">
-        <v>85.28</v>
+        <v>36.55</v>
       </c>
       <c r="F29">
-        <v>172.22</v>
+        <v>110.71</v>
       </c>
       <c r="G29">
-        <v>36.9</v>
+        <v>63.27</v>
       </c>
       <c r="H29">
-        <v>146.15</v>
+        <v>91.20999999999999</v>
       </c>
       <c r="I29">
-        <v>13.1</v>
+        <v>20.03</v>
       </c>
       <c r="J29">
-        <v>64.58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>55.36</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>130.03</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B30">
-        <v>126.7</v>
+        <v>84.65000000000001</v>
       </c>
       <c r="C30">
-        <v>35.38</v>
+        <v>46.75</v>
       </c>
       <c r="D30">
-        <v>71.31</v>
+        <v>39.44</v>
       </c>
       <c r="E30">
-        <v>110.36</v>
+        <v>47.3</v>
       </c>
       <c r="F30">
-        <v>413.33</v>
+        <v>265.71</v>
       </c>
       <c r="G30">
-        <v>17.22</v>
+        <v>71.7</v>
       </c>
       <c r="H30">
-        <v>26.42</v>
+        <v>28.94</v>
       </c>
       <c r="I30">
-        <v>7.29</v>
+        <v>19.27</v>
       </c>
       <c r="J30">
-        <v>10.76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>46.13</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>22.82</v>
+        <v>36.09</v>
       </c>
       <c r="C31">
+        <v>48.01</v>
+      </c>
+      <c r="D31">
+        <v>51.06</v>
+      </c>
+      <c r="E31">
+        <v>9.16</v>
+      </c>
+      <c r="F31">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="G31">
+        <v>47.9</v>
+      </c>
+      <c r="H31">
+        <v>62.47</v>
+      </c>
+      <c r="I31">
+        <v>26.49</v>
+      </c>
+      <c r="J31">
+        <v>67.23</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>43.58</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>35.85</v>
+      </c>
+      <c r="C32">
+        <v>60.83</v>
+      </c>
+      <c r="D32">
+        <v>63.19</v>
+      </c>
+      <c r="E32">
+        <v>47.3</v>
+      </c>
+      <c r="F32">
+        <v>69.92</v>
+      </c>
+      <c r="G32">
+        <v>49.1</v>
+      </c>
+      <c r="H32">
+        <v>64.98999999999999</v>
+      </c>
+      <c r="I32">
+        <v>32.93</v>
+      </c>
+      <c r="J32">
+        <v>70.54000000000001</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>42.56</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>38.65</v>
+      </c>
+      <c r="C33">
+        <v>75.16</v>
+      </c>
+      <c r="D33">
+        <v>49.74</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>88.56999999999999</v>
+      </c>
+      <c r="G33">
+        <v>6.51</v>
+      </c>
+      <c r="H33">
+        <v>50.12</v>
+      </c>
+      <c r="I33">
+        <v>52.62</v>
+      </c>
+      <c r="J33">
+        <v>94.59</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>130.03</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>41.83</v>
+      </c>
+      <c r="C34">
+        <v>10.85</v>
+      </c>
+      <c r="D34">
+        <v>20.89</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>206.67</v>
+      </c>
+      <c r="G34">
+        <v>99.55</v>
+      </c>
+      <c r="H34">
+        <v>75.89</v>
+      </c>
+      <c r="I34">
+        <v>17.61</v>
+      </c>
+      <c r="J34">
+        <v>39.54</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>63.38</v>
+      </c>
+      <c r="C35">
+        <v>71.86</v>
+      </c>
+      <c r="D35">
+        <v>98.11</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>73.81</v>
+      </c>
+      <c r="G35">
+        <v>53.92</v>
+      </c>
+      <c r="H35">
+        <v>79.70999999999999</v>
+      </c>
+      <c r="I35">
+        <v>4.62</v>
+      </c>
+      <c r="J35">
+        <v>76.12</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>88.56999999999999</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>16.47</v>
+      </c>
+      <c r="C36">
+        <v>18.11</v>
+      </c>
+      <c r="D36">
+        <v>12.64</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>25.74</v>
+      </c>
+      <c r="H36">
+        <v>40.86</v>
+      </c>
+      <c r="I36">
+        <v>29.67</v>
+      </c>
+      <c r="J36">
+        <v>39.24</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>71.3</v>
+      </c>
+      <c r="C37">
+        <v>63.38</v>
+      </c>
+      <c r="D37">
+        <v>54.57</v>
+      </c>
+      <c r="E37">
+        <v>4.84</v>
+      </c>
+      <c r="F37">
+        <v>62.37</v>
+      </c>
+      <c r="G37">
+        <v>106.31</v>
+      </c>
+      <c r="H37">
+        <v>65.81</v>
+      </c>
+      <c r="I37">
+        <v>30.99</v>
+      </c>
+      <c r="J37">
+        <v>78.20999999999999</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>83.81</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>77.91</v>
+      </c>
+      <c r="C38">
+        <v>95.47</v>
+      </c>
+      <c r="D38">
+        <v>60.55</v>
+      </c>
+      <c r="E38">
+        <v>25.8</v>
+      </c>
+      <c r="F38">
+        <v>88.56999999999999</v>
+      </c>
+      <c r="G38">
+        <v>107.55</v>
+      </c>
+      <c r="H38">
+        <v>82.33</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>121.33</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>125.84</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>108.82</v>
+      </c>
+      <c r="C39">
+        <v>37.25</v>
+      </c>
+      <c r="D39">
+        <v>46.94</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>96.56</v>
+      </c>
+      <c r="H39">
+        <v>52.53</v>
+      </c>
+      <c r="I39">
+        <v>16.49</v>
+      </c>
+      <c r="J39">
+        <v>57.76</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>107.97</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40">
+        <v>40.05</v>
+      </c>
+      <c r="C40">
+        <v>84.42</v>
+      </c>
+      <c r="D40">
+        <v>59.24</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>84.34999999999999</v>
+      </c>
+      <c r="G40">
+        <v>149.96</v>
+      </c>
+      <c r="H40">
+        <v>49.21</v>
+      </c>
+      <c r="I40">
+        <v>53.57</v>
+      </c>
+      <c r="J40">
+        <v>61.71</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>89.23</v>
+      </c>
+      <c r="C41">
+        <v>59.39</v>
+      </c>
+      <c r="D41">
         <v>50.92</v>
       </c>
-      <c r="D31">
-        <v>46.05</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>30.39</v>
-      </c>
-      <c r="G31">
-        <v>23.62</v>
-      </c>
-      <c r="H31">
-        <v>42.36</v>
-      </c>
-      <c r="I31">
-        <v>15.7</v>
-      </c>
-      <c r="J31">
-        <v>47.31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32">
-        <v>22.78</v>
-      </c>
-      <c r="C32">
-        <v>68.13</v>
-      </c>
-      <c r="D32">
-        <v>52.36</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>54.39</v>
-      </c>
-      <c r="G32">
-        <v>30.85</v>
-      </c>
-      <c r="H32">
-        <v>30.87</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>36.58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33">
-        <v>29.87</v>
-      </c>
-      <c r="C33">
-        <v>51.26</v>
-      </c>
-      <c r="D33">
-        <v>38.69</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>20.64</v>
-      </c>
-      <c r="I33">
-        <v>20.75</v>
-      </c>
-      <c r="J33">
-        <v>60.19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34">
-        <v>9.57</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>24.37</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>68.89</v>
-      </c>
-      <c r="G34">
-        <v>45.59</v>
-      </c>
-      <c r="H34">
-        <v>47.07</v>
-      </c>
-      <c r="I34">
-        <v>41.09</v>
-      </c>
-      <c r="J34">
-        <v>36.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35">
-        <v>38.41</v>
-      </c>
-      <c r="C35">
-        <v>101.38</v>
-      </c>
-      <c r="D35">
-        <v>115.1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>35.23</v>
-      </c>
-      <c r="H35">
-        <v>82.67</v>
-      </c>
-      <c r="I35">
-        <v>5.39</v>
-      </c>
-      <c r="J35">
-        <v>113.02</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36">
-        <v>15.37</v>
-      </c>
-      <c r="C36">
-        <v>29.58</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>35.48</v>
-      </c>
-      <c r="I36">
-        <v>14.97</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37">
-        <v>53.14</v>
-      </c>
-      <c r="C37">
-        <v>47.9</v>
-      </c>
-      <c r="D37">
-        <v>54.43</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>58.22</v>
-      </c>
-      <c r="G37">
-        <v>62.63</v>
-      </c>
-      <c r="H37">
-        <v>37.33</v>
-      </c>
-      <c r="I37">
-        <v>19.54</v>
-      </c>
-      <c r="J37">
-        <v>59.31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38">
-        <v>70.61</v>
-      </c>
-      <c r="C38">
-        <v>91.26000000000001</v>
-      </c>
-      <c r="D38">
-        <v>75.55</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>137.78</v>
-      </c>
-      <c r="G38">
-        <v>38.75</v>
-      </c>
-      <c r="H38">
-        <v>69.06</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>141.55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39">
-        <v>129.09</v>
-      </c>
-      <c r="C39">
-        <v>32.84</v>
-      </c>
-      <c r="D39">
-        <v>61.88</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>126.9</v>
-      </c>
-      <c r="H39">
-        <v>36.9</v>
-      </c>
-      <c r="I39">
-        <v>19.43</v>
-      </c>
-      <c r="J39">
-        <v>44.93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40">
-        <v>19.31</v>
-      </c>
-      <c r="C40">
-        <v>74.27</v>
-      </c>
-      <c r="D40">
-        <v>54.85</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>98.41</v>
-      </c>
-      <c r="G40">
-        <v>76.54000000000001</v>
-      </c>
-      <c r="H40">
-        <v>44.76</v>
-      </c>
-      <c r="I40">
-        <v>35.78</v>
-      </c>
-      <c r="J40">
-        <v>59.29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41">
-        <v>60.86</v>
-      </c>
-      <c r="C41">
-        <v>23.76</v>
-      </c>
-      <c r="D41">
-        <v>58.62</v>
-      </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>59.05</v>
       </c>
       <c r="G41">
-        <v>61.39</v>
+        <v>104.61</v>
       </c>
       <c r="H41">
-        <v>20.21</v>
+        <v>64.97</v>
       </c>
       <c r="I41">
-        <v>39.35</v>
+        <v>62.84</v>
       </c>
       <c r="J41">
-        <v>60.78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>104.2</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>81.89</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>57.57</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>45.27</v>
       </c>
       <c r="D42">
-        <v>14.69</v>
+        <v>51.36</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>55.36</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>40.26</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>75.63</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>54.81</v>
       </c>
       <c r="J42">
+        <v>60.14</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
         <v>0</v>
       </c>
     </row>
